--- a/Documentos/Datos Dev Retefte.xlsx
+++ b/Documentos/Datos Dev Retefte.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpf0069\Documents\Proyectos\Area Contabilidad\Proyectos Python\Conciliación Carteras Externas\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C52FE16-78D5-4CF4-8A3B-0B99E1021C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B2855F-D5CC-48BF-B0BA-62D9CC0936E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E973803-623B-4882-B607-17BDEE792B88}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>NIT FIC</t>
   </si>
@@ -132,6 +129,18 @@
   </si>
   <si>
     <t>901817824-8</t>
+  </si>
+  <si>
+    <t>Fondo</t>
+  </si>
+  <si>
+    <t>Fondo de inversion Colectiva Efectivo a la Vista</t>
+  </si>
+  <si>
+    <t>Fondo de inversion Colectiva Alta Liquidez</t>
+  </si>
+  <si>
+    <t>Fondo de inversion Colectiva Fiducuenta</t>
   </si>
 </sst>
 </file>
@@ -252,7 +261,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,28 +269,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -299,104 +315,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Registro"/>
-      <sheetName val="Datos Dev retefte "/>
-      <sheetName val="BCE DIC"/>
-      <sheetName val="Conciliacion"/>
-      <sheetName val="Reporte NF"/>
-      <sheetName val="Mvtos"/>
-      <sheetName val="Extracto Valorenz 102022"/>
-      <sheetName val="Extracto Acti y finanzas 106919"/>
-      <sheetName val="Extracto Accecreditos 93235"/>
-      <sheetName val="Extracto PA AVISTA 71316"/>
-      <sheetName val="Extracto PA VALORANZ 98080"/>
-      <sheetName val="Extracto FInexus 116047 "/>
-      <sheetName val="Extracto Accial Avista 102699"/>
-      <sheetName val="Extracto Credialianza 106295"/>
-      <sheetName val="Extracto La Hipotecaria 119656"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="17">
-          <cell r="L17" t="str">
-            <v>Saldo final</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="12">
-          <cell r="M12" t="str">
-            <v>Saldo final</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="18">
-          <cell r="L18" t="str">
-            <v>Saldo final</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="20">
-          <cell r="L20" t="str">
-            <v>Saldo final</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="11">
-          <cell r="L11" t="str">
-            <v>Saldo final</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="12">
-          <cell r="M12" t="str">
-            <v>Saldo final</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="12">
-          <cell r="M12" t="str">
-            <v>Saldo final</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="12">
-          <cell r="M12" t="str">
-            <v>Saldo final</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="12">
-          <cell r="M12" t="str">
-            <v>Saldo final</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,379 +634,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE8FF87-A8AA-4D3E-9BF7-6683D200A13B}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>102022</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="12">
         <v>1001161736</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="18">
         <v>24240</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="19">
         <v>6255</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="3">
         <v>4097</v>
       </c>
-      <c r="I2" s="9" t="str">
-        <f>+'[1]Extracto Valorenz 102022'!L17</f>
-        <v>Saldo final</v>
-      </c>
-      <c r="J2" s="18">
-        <f>+SUM(F2:I2)</f>
-        <v>34592</v>
+      <c r="J2" s="15">
+        <v>13972</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="11">
+        <f>+SUM(G2:J2)</f>
+        <v>48564</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="3">
         <v>106919</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="12">
         <v>1001162106</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="18">
         <v>69408</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="19">
         <v>18270</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="3">
         <v>14787</v>
       </c>
-      <c r="I3" s="9" t="str">
-        <f>+'[1]Extracto Acti y finanzas 106919'!M12</f>
-        <v>Saldo final</v>
-      </c>
-      <c r="J3" s="18">
-        <f>+SUM(F3:I3)</f>
-        <v>102465</v>
+      <c r="J3" s="15">
+        <v>44564</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="11">
+        <f t="shared" ref="L3:L11" si="0">+SUM(G3:J3)</f>
+        <v>147029</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="3">
         <v>93235</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="12">
         <v>1001160035</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="18">
         <v>114490</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="20">
         <v>18275</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="3">
         <v>12056</v>
       </c>
-      <c r="I4" s="9" t="str">
-        <f>+'[1]Extracto Accecreditos 93235'!L18</f>
-        <v>Saldo final</v>
-      </c>
-      <c r="J4" s="18">
-        <f>+SUM(F4:I4)</f>
-        <v>144821</v>
+      <c r="J4" s="15">
+        <v>33213</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="11">
+        <f t="shared" si="0"/>
+        <v>178034</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="3">
         <v>71316</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="12">
         <v>1001150945</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="18">
         <v>1379081</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="20">
         <v>291568</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="3">
         <v>219319</v>
       </c>
-      <c r="I5" s="9" t="str">
-        <f>+'[1]Extracto PA AVISTA 71316'!L20</f>
-        <v>Saldo final</v>
-      </c>
-      <c r="J5" s="18">
-        <f>+SUM(F5:I5)</f>
-        <v>1889968</v>
+      <c r="J5" s="15">
+        <v>603254</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="11">
+        <f t="shared" si="0"/>
+        <v>2493222</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="3">
         <v>98080</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="12">
         <v>1001033026</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="18">
         <v>4675</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="21">
         <v>1150</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="3">
         <v>646</v>
       </c>
-      <c r="I6" s="9" t="str">
-        <f>+'[1]Extracto PA VALORANZ 98080'!L11</f>
-        <v>Saldo final</v>
-      </c>
-      <c r="J6" s="18">
-        <f>+SUM(F6:I6)</f>
-        <v>6471</v>
+      <c r="J6" s="15">
+        <v>2015</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>8486</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="6">
         <v>116047</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="12">
         <v>1001048776</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="str">
-        <f>+'[1]Extracto FInexus 116047 '!M12</f>
-        <v>Saldo final</v>
-      </c>
-      <c r="J7" s="18">
-        <f>+SUM(F7:I7)</f>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="12">
+      <c r="E8" s="8">
         <v>102699</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="12">
         <v>252000014898</v>
       </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="str">
-        <f>+'[1]Extracto Accial Avista 102699'!M12</f>
-        <v>Saldo final</v>
-      </c>
-      <c r="J8" s="18">
-        <f>+SUM(F8:I8)</f>
-        <v>0</v>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>3418937.7800000003</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>3418937.7800000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="12">
+      <c r="E9" s="6">
         <v>106295</v>
       </c>
-      <c r="E9" s="13">
+      <c r="F9" s="12">
         <v>1001163062</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="str">
-        <f>+'[1]Extracto Credialianza 106295'!M12</f>
-        <v>Saldo final</v>
-      </c>
-      <c r="J9" s="18">
-        <f>+SUM(F9:I9)</f>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="12">
+      <c r="E10" s="6">
         <v>119656</v>
       </c>
-      <c r="E10" s="13">
+      <c r="F10" s="12">
         <v>1001163096</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="str">
-        <f>+'[1]Extracto La Hipotecaria 119656'!M12</f>
-        <v>Saldo final</v>
-      </c>
-      <c r="J10" s="18">
-        <f>+SUM(F10:I10)</f>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="16">
-        <f>SUM(F2:F10)</f>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="9"/>
+      <c r="G11" s="22">
         <v>1591894</v>
       </c>
-      <c r="G11" s="16">
-        <f t="shared" ref="G11:I11" si="0">SUM(G2:G10)</f>
+      <c r="H11" s="22">
         <v>335518</v>
       </c>
-      <c r="H11" s="16">
+      <c r="I11" s="22">
+        <v>250905</v>
+      </c>
+      <c r="J11" s="16">
+        <v>4115955.78</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="11">
         <f t="shared" si="0"/>
-        <v>250905</v>
-      </c>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <f>SUM(J2:J10)</f>
-        <v>2178317</v>
+        <v>6294272.7799999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>